--- a/資料/仕様書/モグラ叩きゲーム_仕様書_概要.xlsx
+++ b/資料/仕様書/モグラ叩きゲーム_仕様書_概要.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563AD5F-8175-47C8-83F3-6782E7DE2829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AC0B2D-1D94-44F9-90D1-1A7607962E24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" xr2:uid="{722D0E73-C315-49F6-BC63-6DD6F9D03947}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="8800" xr2:uid="{722D0E73-C315-49F6-BC63-6DD6F9D03947}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t>モグラ叩きゲーム 仕様書</t>
-    <rPh sb="3" eb="4">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇概要</t>
     <rPh sb="1" eb="3">
       <t>ガイヨウ</t>
@@ -536,6 +526,19 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグラ叩きゲーム 仕様書　佐々木</t>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ササキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1128,41 +1131,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD44EC3C-0D10-4A39-B759-0AF424717E83}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3"/>
       <c r="C7" s="15"/>
       <c r="D7" s="4"/>
@@ -1180,7 +1183,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="12"/>
       <c r="C8" s="16"/>
       <c r="D8" s="13"/>
@@ -1198,7 +1201,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="7"/>
@@ -1216,7 +1219,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="9"/>
       <c r="C10" s="18"/>
       <c r="D10" s="10"/>
@@ -1234,9 +1237,9 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1254,7 +1257,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1272,9 +1275,9 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1293,14 +1296,14 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -1314,14 +1317,14 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1335,14 +1338,14 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1356,245 +1359,245 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D56" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
